--- a/tests/regression_data_linux/performance_analysis_evaluate_cascade_isentropic_throat_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_evaluate_cascade_isentropic_throat_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.01460795680544</v>
+        <v>2.014607956760946</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999959823</v>
+        <v>2.299999999889422</v>
       </c>
       <c r="D2" t="n">
-        <v>2.790805431906836</v>
+        <v>2.790805431959769</v>
       </c>
       <c r="E2" t="n">
-        <v>92.46445086892692</v>
+        <v>92.46445086264224</v>
       </c>
       <c r="F2" t="n">
-        <v>78.96241543909073</v>
+        <v>78.96241543441478</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1460240698230719</v>
+        <v>0.1460240698155987</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.1084395089138</v>
+        <v>-78.10843950423038</v>
       </c>
       <c r="I2" t="n">
-        <v>138477.4854438061</v>
+        <v>138477.4854382323</v>
       </c>
       <c r="J2" t="n">
-        <v>85.11216069072289</v>
+        <v>85.11216068729703</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-22.10880530823631</v>
+        <v>-22.10880530424227</v>
       </c>
       <c r="M2" t="n">
-        <v>135.4695893204513</v>
+        <v>135.4695893169848</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372165.248088365</v>
+        <v>372165.2480913033</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.722568379083403</v>
+        <v>0.7225683790902554</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.071046019641502</v>
+        <v>2.071046019572117</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999877776</v>
+        <v>2.399999999796908</v>
       </c>
       <c r="D3" t="n">
-        <v>2.801075364110754</v>
+        <v>2.801075364192245</v>
       </c>
       <c r="E3" t="n">
-        <v>92.38751734040065</v>
+        <v>92.38751733816825</v>
       </c>
       <c r="F3" t="n">
-        <v>78.15169257955014</v>
+        <v>78.15169257761603</v>
       </c>
       <c r="G3" t="n">
-        <v>0.154088183887427</v>
+        <v>0.1540881838879217</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.30578076343757</v>
+        <v>-77.30578076150395</v>
       </c>
       <c r="I3" t="n">
-        <v>143745.3889425689</v>
+        <v>143745.3889431933</v>
       </c>
       <c r="J3" t="n">
-        <v>88.34996247238406</v>
+        <v>88.34996247276787</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-23.97282605742824</v>
+        <v>-23.9728260575515</v>
       </c>
       <c r="M3" t="n">
-        <v>142.2541798763214</v>
+        <v>142.2541798765498</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370466.5012733726</v>
+        <v>370466.5012746427</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.711119963530022</v>
+        <v>0.7111199635403662</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>82.20852515552811</v>
+        <v>82.20852515470537</v>
       </c>
       <c r="D2" t="n">
-        <v>82.20852515552811</v>
+        <v>82.20852515470537</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>82.20852515552811</v>
+        <v>82.20852515470537</v>
       </c>
       <c r="H2" t="n">
-        <v>82.20852515552811</v>
+        <v>82.20852515470537</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.2307534752146</v>
+        <v>292.2307534752819</v>
       </c>
       <c r="L2" t="n">
-        <v>132579.3702990342</v>
+        <v>132579.3702991412</v>
       </c>
       <c r="M2" t="n">
-        <v>1.58129267467997</v>
+        <v>1.581292674680881</v>
       </c>
       <c r="N2" t="n">
-        <v>334562.9119593957</v>
+        <v>334562.9119594441</v>
       </c>
       <c r="O2" t="n">
-        <v>418405.3102844663</v>
+        <v>418405.3102845338</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687079.476573696</v>
+        <v>-687079.4765738829</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7074052423625</v>
+        <v>717.7074052423656</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.64127545716</v>
+        <v>1006.641275457164</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402578917403294</v>
+        <v>1.402578917403293</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994971152129474</v>
+        <v>0.9994971152129479</v>
       </c>
       <c r="V2" t="n">
-        <v>342.8367684408995</v>
+        <v>342.836768440939</v>
       </c>
       <c r="W2" t="n">
-        <v>185860.4758443267</v>
+        <v>185860.4758444766</v>
       </c>
       <c r="X2" t="n">
-        <v>5.380380069819585e-06</v>
+        <v>5.380380069815248e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132513.381983828</v>
+        <v>132513.381983935</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.546407653545815e-06</v>
+        <v>7.546407653539723e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003434887590782611</v>
+        <v>0.003434887590781821</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.816545453091563e-05</v>
+        <v>1.816545453091892e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02581513322773646</v>
+        <v>0.02581513322774153</v>
       </c>
       <c r="AD2" t="n">
-        <v>132579.3702990342</v>
+        <v>132579.3702991412</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.58129267467997</v>
+        <v>1.581292674680881</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.58129267467997</v>
+        <v>1.581292674680881</v>
       </c>
       <c r="AG2" t="n">
-        <v>334562.9119593957</v>
+        <v>334562.9119594441</v>
       </c>
       <c r="AH2" t="n">
-        <v>418405.3102844663</v>
+        <v>418405.3102845338</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7074052423625</v>
+        <v>717.7074052423656</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.64127545716</v>
+        <v>1006.641275457164</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.8367684408995</v>
+        <v>342.836768440939</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994971152129474</v>
+        <v>0.9994971152129479</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.816545453091563e-05</v>
+        <v>1.816545453091892e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02581513322773646</v>
+        <v>0.02581513322774153</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2397891145963819</v>
+        <v>0.2397891145939545</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2397891145963819</v>
+        <v>0.2397891145939545</v>
       </c>
       <c r="DH2" t="n">
-        <v>187206.3546020301</v>
+        <v>187206.3546002305</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.790805431925893</v>
+        <v>2.790805431899571</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>274.1650384751102</v>
+        <v>274.1650384670643</v>
       </c>
       <c r="DU2" t="n">
-        <v>114.339641425395</v>
+        <v>114.3396414242535</v>
       </c>
       <c r="DV2" t="n">
-        <v>249.1844993589504</v>
+        <v>249.1844993506217</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.35172290361163</v>
+        <v>65.35172290310254</v>
       </c>
       <c r="DX2" t="n">
-        <v>274.1650384751102</v>
+        <v>274.1650384670643</v>
       </c>
       <c r="DY2" t="n">
-        <v>114.339641425395</v>
+        <v>114.3396414242535</v>
       </c>
       <c r="DZ2" t="n">
-        <v>249.1844993589504</v>
+        <v>249.1844993506217</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.35172290361163</v>
+        <v>65.35172290310254</v>
       </c>
       <c r="EB2" t="n">
-        <v>258.0958630479698</v>
+        <v>258.0958630501678</v>
       </c>
       <c r="EC2" t="n">
-        <v>84173.10360201265</v>
+        <v>84173.10360314888</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.136926240142543</v>
+        <v>1.136926240148185</v>
       </c>
       <c r="EE2" t="n">
-        <v>310165.5201791202</v>
+        <v>310165.520180694</v>
       </c>
       <c r="EF2" t="n">
-        <v>384201.1969275603</v>
+        <v>384201.1969297661</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.783891563367</v>
+        <v>3788.783891568041</v>
       </c>
       <c r="EH2" t="n">
-        <v>-593668.2514677328</v>
+        <v>-593668.2514750607</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.4980321128028</v>
+        <v>716.4980321128555</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.154227239363</v>
+        <v>1005.154227239404</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402870883364987</v>
+        <v>1.402870883364942</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993181540916195</v>
+        <v>0.9993181540916399</v>
       </c>
       <c r="EM2" t="n">
-        <v>322.1675625758223</v>
+        <v>322.1675625771956</v>
       </c>
       <c r="EN2" t="n">
-        <v>118003.7782549849</v>
+        <v>118003.7782565765</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.474304931484311e-06</v>
+        <v>8.474304931370018e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>84115.92232346852</v>
+        <v>84115.92232460572</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.188835564513566e-05</v>
+        <v>1.188835564497494e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003888006291849532</v>
+        <v>0.003888006291816268</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.645301935526028e-05</v>
+        <v>1.645301935537311e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02319180040379881</v>
+        <v>0.02319180040397051</v>
       </c>
       <c r="EU2" t="n">
-        <v>84173.10360201265</v>
+        <v>84173.10360314888</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.136926240142543</v>
+        <v>1.136926240148185</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.136926240142543</v>
+        <v>1.136926240148185</v>
       </c>
       <c r="EX2" t="n">
-        <v>310165.5201791202</v>
+        <v>310165.520180694</v>
       </c>
       <c r="EY2" t="n">
-        <v>384201.1969275603</v>
+        <v>384201.1969297661</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.783891563367</v>
+        <v>3788.783891568041</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.4980321128028</v>
+        <v>716.4980321128555</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.154227239363</v>
+        <v>1005.154227239404</v>
       </c>
       <c r="FC2" t="n">
-        <v>322.1675625758223</v>
+        <v>322.1675625771956</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993181540916195</v>
+        <v>0.9993181540916399</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.645301935526028e-05</v>
+        <v>1.645301935537311e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02319180040379881</v>
+        <v>0.02319180040397051</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5935241442339</v>
+        <v>295.5935241441288</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135206.9501612111</v>
+        <v>135206.950158849</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.594232983789831</v>
+        <v>1.594232983762535</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3992199758</v>
+        <v>336974.399219905</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.783891567855</v>
+        <v>3788.783891572528</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698155.5516408576</v>
+        <v>-698155.5516419408</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8559613685682</v>
+        <v>717.8559613685577</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.775725221381</v>
+        <v>1006.775725221339</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402475955346246</v>
+        <v>1.402475955346208</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995305694123422</v>
+        <v>0.999530569412349</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8025797538026</v>
+        <v>344.802579753739</v>
       </c>
       <c r="FU2" t="n">
-        <v>189536.4766613948</v>
+        <v>189536.4766580797</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.276029277395985e-06</v>
+        <v>5.276029277488266e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135144.1897730088</v>
+        <v>135144.1897706486</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.399504201250698e-06</v>
+        <v>7.399504201379922e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395614454315212</v>
+        <v>0.003395614454316215</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832923467032175e-05</v>
+        <v>1.832923467031631e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606725562224474</v>
+        <v>0.02606725562223613</v>
       </c>
       <c r="GB2" t="n">
-        <v>135206.9501612111</v>
+        <v>135206.950158849</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.594232983789831</v>
+        <v>1.594232983762535</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.594232983789831</v>
+        <v>1.594232983762535</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3992199758</v>
+        <v>336974.399219905</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.783891567855</v>
+        <v>3788.783891572528</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8559613685682</v>
+        <v>717.8559613685577</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.775725221381</v>
+        <v>1006.775725221339</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8025797538026</v>
+        <v>344.802579753739</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995305694123422</v>
+        <v>0.999530569412349</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832923467032175e-05</v>
+        <v>1.832923467031631e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606725562224474</v>
+        <v>0.02606725562223613</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5935241442339</v>
+        <v>295.5935241441288</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135206.9501612111</v>
+        <v>135206.950158849</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.594232983789831</v>
+        <v>1.594232983762535</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3992199758</v>
+        <v>336974.399219905</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.783891567855</v>
+        <v>3788.783891572528</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698155.5516408576</v>
+        <v>-698155.5516419408</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8559613685682</v>
+        <v>717.8559613685577</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.775725221381</v>
+        <v>1006.775725221339</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402475955346246</v>
+        <v>1.402475955346208</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995305694123422</v>
+        <v>0.999530569412349</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8025797538026</v>
+        <v>344.802579753739</v>
       </c>
       <c r="HB2" t="n">
-        <v>189536.4766613948</v>
+        <v>189536.4766580797</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.276029277395985e-06</v>
+        <v>5.276029277488266e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135144.1897730088</v>
+        <v>135144.1897706486</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.399504201250698e-06</v>
+        <v>7.399504201379922e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395614454315212</v>
+        <v>0.003395614454316215</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832923467032175e-05</v>
+        <v>1.832923467031631e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606725562224474</v>
+        <v>0.02606725562223613</v>
       </c>
       <c r="HI2" t="n">
-        <v>135206.9501612111</v>
+        <v>135206.950158849</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.594232983789831</v>
+        <v>1.594232983762535</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.594232983789831</v>
+        <v>1.594232983762535</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3992199758</v>
+        <v>336974.399219905</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.783891567855</v>
+        <v>3788.783891572528</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8559613685682</v>
+        <v>717.8559613685577</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.775725221381</v>
+        <v>1006.775725221339</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8025797538026</v>
+        <v>344.802579753739</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995305694123422</v>
+        <v>0.999530569412349</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832923467032175e-05</v>
+        <v>1.832923467031631e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606725562224474</v>
+        <v>0.02606725562223613</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8510013742013064</v>
+        <v>0.8510013741727049</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8510013742013064</v>
+        <v>0.8510013741727049</v>
       </c>
       <c r="HY2" t="n">
-        <v>495605.9296973724</v>
+        <v>495605.9296818885</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.790805431933197</v>
+        <v>2.790805431919185</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01561897651710651</v>
+        <v>0.01561897651666977</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.808493700681213e-07</v>
+        <v>-1.808493700767934e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01378013287983339</v>
+        <v>0.01378013287981708</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02533043296343442</v>
+        <v>0.02533043296365975</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05472936151100424</v>
+        <v>0.05472936151077651</v>
       </c>
       <c r="IH2" t="n">
-        <v>-2.243808611135378e-11</v>
+        <v>-2.142757499212777e-11</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>274.1650384751102</v>
+        <v>274.1650384670643</v>
       </c>
       <c r="IL2" t="n">
-        <v>114.339641425395</v>
+        <v>114.3396414242535</v>
       </c>
       <c r="IM2" t="n">
-        <v>249.1844993589504</v>
+        <v>249.1844993506217</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.35172290361163</v>
+        <v>65.35172290310254</v>
       </c>
       <c r="IO2" t="n">
-        <v>141.808412950127</v>
+        <v>141.8084129442801</v>
       </c>
       <c r="IP2" t="n">
-        <v>114.339641425395</v>
+        <v>114.3396414242535</v>
       </c>
       <c r="IQ2" t="n">
-        <v>83.88129935895037</v>
+        <v>83.8812993506217</v>
       </c>
       <c r="IR2" t="n">
-        <v>36.26433848972295</v>
+        <v>36.26433848728249</v>
       </c>
       <c r="IS2" t="n">
-        <v>258.0958630480694</v>
+        <v>258.0958630501674</v>
       </c>
       <c r="IT2" t="n">
-        <v>84173.10360191631</v>
+        <v>84173.10360302044</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.1369262401408</v>
+        <v>1.13692624014645</v>
       </c>
       <c r="IV2" t="n">
-        <v>310165.5201791918</v>
+        <v>310165.5201806941</v>
       </c>
       <c r="IW2" t="n">
-        <v>384201.1969276606</v>
+        <v>384201.1969297662</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.783891564085</v>
+        <v>3788.78389156848</v>
       </c>
       <c r="IY2" t="n">
-        <v>-593668.2514681949</v>
+        <v>-593668.2514751726</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.4980321128047</v>
+        <v>716.498032112855</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.154227239361</v>
+        <v>1005.154227239402</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402870883364981</v>
+        <v>1.402870883364939</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993181540916217</v>
+        <v>0.999318154091641</v>
       </c>
       <c r="JD2" t="n">
-        <v>322.1675625758845</v>
+        <v>322.1675625771953</v>
       </c>
       <c r="JE2" t="n">
-        <v>118003.7782548496</v>
+        <v>118003.7782563963</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.474304931494027e-06</v>
+        <v>8.474304931382959e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>84115.92232337242</v>
+        <v>84115.92232447745</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.188835564514925e-05</v>
+        <v>1.188835564499307e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003888006291848001</v>
+        <v>0.003888006291816254</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.645301935526537e-05</v>
+        <v>1.645301935537307e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02319180040380653</v>
+        <v>0.02319180040397043</v>
       </c>
       <c r="JL2" t="n">
-        <v>84173.10360191631</v>
+        <v>84173.10360302044</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.1369262401408</v>
+        <v>1.13692624014645</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.1369262401408</v>
+        <v>1.13692624014645</v>
       </c>
       <c r="JO2" t="n">
-        <v>310165.5201791918</v>
+        <v>310165.5201806941</v>
       </c>
       <c r="JP2" t="n">
-        <v>384201.1969276606</v>
+        <v>384201.1969297662</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.783891564085</v>
+        <v>3788.78389156848</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.4980321128047</v>
+        <v>716.498032112855</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.154227239361</v>
+        <v>1005.154227239402</v>
       </c>
       <c r="JT2" t="n">
-        <v>322.1675625758845</v>
+        <v>322.1675625771953</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993181540916217</v>
+        <v>0.999318154091641</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.645301935526537e-05</v>
+        <v>1.645301935537307e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02319180040380653</v>
+        <v>0.02319180040397043</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5935241443333</v>
+        <v>295.593524144028</v>
       </c>
       <c r="KA2" t="n">
-        <v>135206.9501610341</v>
+        <v>135206.9501584821</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.594232983787204</v>
+        <v>1.594232983758752</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3992200477</v>
+        <v>336974.3992198334</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310886904</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.783891568571</v>
+        <v>3788.783891572968</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698155.5516413451</v>
+        <v>-698155.5516417893</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8559613685719</v>
+        <v>717.8559613685525</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.77572522138</v>
+        <v>1006.77572522133</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402475955346238</v>
+        <v>1.402475955346206</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995305694123441</v>
+        <v>0.999530569412349</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8025797538603</v>
+        <v>344.8025797536799</v>
       </c>
       <c r="KL2" t="n">
-        <v>189536.476661146</v>
+        <v>189536.476657565</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.276029277402913e-06</v>
+        <v>5.276029277502593e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135144.1897728321</v>
+        <v>135144.1897702819</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.399504201260372e-06</v>
+        <v>7.399504201400002e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395614454314042</v>
+        <v>0.003395614454317352</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832923467032654e-05</v>
+        <v>1.832923467031137e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606725562225209</v>
+        <v>0.02606725562222851</v>
       </c>
       <c r="KS2" t="n">
-        <v>135206.9501610341</v>
+        <v>135206.9501584821</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.594232983787204</v>
+        <v>1.594232983758752</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.594232983787204</v>
+        <v>1.594232983758752</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3992200477</v>
+        <v>336974.3992198334</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310886904</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.783891568571</v>
+        <v>3788.783891572968</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8559613685719</v>
+        <v>717.8559613685525</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.77572522138</v>
+        <v>1006.77572522133</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8025797538603</v>
+        <v>344.8025797536799</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995305694123441</v>
+        <v>0.999530569412349</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832923467032654e-05</v>
+        <v>1.832923467031137e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606725562225209</v>
+        <v>0.02606725562222851</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.1325478448691</v>
+        <v>268.1325478462387</v>
       </c>
       <c r="LH2" t="n">
-        <v>96169.14343004466</v>
+        <v>96169.14343029221</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.250276210461619</v>
+        <v>1.250276210458431</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317337.6916904893</v>
+        <v>317337.6916914717</v>
       </c>
       <c r="LK2" t="n">
-        <v>394256.0099191771</v>
+        <v>394256.0099205537</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.783891570032</v>
+        <v>3788.783891574428</v>
       </c>
       <c r="LM2" t="n">
-        <v>-621640.2681610939</v>
+        <v>-621640.2681660851</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.7853702995077</v>
+        <v>716.7853702995457</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.511312851281</v>
+        <v>1005.511312851303</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402806690140913</v>
+        <v>1.402806690140869</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993647230925879</v>
+        <v>0.9993647230926045</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.3798436120909</v>
+        <v>328.3798436129299</v>
       </c>
       <c r="LS2" t="n">
-        <v>134821.4368049387</v>
+        <v>134821.4368052838</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.41721809007875e-06</v>
+        <v>7.417218090059761e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>96108.35031831494</v>
+        <v>96108.35031856396</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.040492315899667e-05</v>
+        <v>1.040492315896971e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003742747758391653</v>
+        <v>0.00374274775837237</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.696534104374989e-05</v>
+        <v>1.696534104381904e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02397353035665417</v>
+        <v>0.02397353035675969</v>
       </c>
       <c r="LZ2" t="n">
-        <v>96169.14343004466</v>
+        <v>96169.14343029221</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.250276210461619</v>
+        <v>1.250276210458431</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.250276210461619</v>
+        <v>1.250276210458431</v>
       </c>
       <c r="MC2" t="n">
-        <v>317337.6916904893</v>
+        <v>317337.6916914717</v>
       </c>
       <c r="MD2" t="n">
-        <v>394256.0099191771</v>
+        <v>394256.0099205537</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.783891570032</v>
+        <v>3788.783891574428</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.7853702995077</v>
+        <v>716.7853702995457</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.511312851281</v>
+        <v>1005.511312851303</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.3798436120909</v>
+        <v>328.3798436129299</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993647230925879</v>
+        <v>0.9993647230926045</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.696534104374989e-05</v>
+        <v>1.696534104381904e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02397353035665417</v>
+        <v>0.02397353035675969</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8510013742011422</v>
+        <v>0.8510013741727057</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4401697421562263</v>
+        <v>0.440169742136287</v>
       </c>
       <c r="MP2" t="n">
-        <v>255366.009196939</v>
+        <v>255366.0091860075</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.79080543192892</v>
+        <v>2.790805431914928</v>
       </c>
       <c r="MR2" t="n">
-        <v>380593.4359541573</v>
+        <v>380593.4359554336</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>135.4695893204513</v>
+        <v>135.4695893169848</v>
       </c>
       <c r="MU2" t="n">
-        <v>125.5086189527408</v>
+        <v>125.5086189530834</v>
       </c>
       <c r="MV2" t="n">
-        <v>-50.9862353898327</v>
+        <v>-50.98623537977892</v>
       </c>
       <c r="MW2" t="n">
-        <v>-22.10880530823631</v>
+        <v>-22.10880530424227</v>
       </c>
       <c r="MX2" t="n">
-        <v>250.0670575919126</v>
+        <v>250.0670575833887</v>
       </c>
       <c r="MY2" t="n">
-        <v>125.5086189527408</v>
+        <v>125.5086189530834</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-216.2894353898327</v>
+        <v>-216.2894353797789</v>
       </c>
       <c r="NA2" t="n">
-        <v>-59.87422706616638</v>
+        <v>-59.87422706494235</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.9057734232838</v>
+        <v>236.9057734266831</v>
       </c>
       <c r="NC2" t="n">
-        <v>60000.00000004876</v>
+        <v>60000.0000018853</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8829486054316195</v>
+        <v>0.8829486054459561</v>
       </c>
       <c r="NE2" t="n">
-        <v>295035.1181618778</v>
+        <v>295035.1181643091</v>
       </c>
       <c r="NF2" t="n">
-        <v>362989.2432728387</v>
+        <v>362989.2432762466</v>
       </c>
       <c r="NG2" t="n">
-        <v>3800.133275762642</v>
+        <v>3800.133275768247</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537284.269533267</v>
+        <v>-537284.2695441046</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0331786757796</v>
+        <v>716.0331786758322</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487866949675</v>
+        <v>1004.487866949722</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402851008674429</v>
+        <v>1.402851008674392</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992725343294128</v>
+        <v>0.9992725343294361</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6426631665779</v>
+        <v>308.6426631687954</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.94332228081</v>
+        <v>84109.94332485512</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188920073537963e-05</v>
+        <v>1.188920073501574e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.43357861457</v>
+        <v>59956.43358045119</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667877724396007e-05</v>
+        <v>1.667877724344916e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004234486916512701</v>
+        <v>0.004234486916451803</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534470472108467e-05</v>
+        <v>1.534470472126517e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150906073069596</v>
+        <v>0.02150906073096879</v>
       </c>
       <c r="NU2" t="n">
-        <v>60000.00000004876</v>
+        <v>60000.0000018853</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8829486054316195</v>
+        <v>0.8829486054459561</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8829486054316195</v>
+        <v>0.8829486054459561</v>
       </c>
       <c r="NX2" t="n">
-        <v>295035.1181618778</v>
+        <v>295035.1181643091</v>
       </c>
       <c r="NY2" t="n">
-        <v>362989.2432728387</v>
+        <v>362989.2432762466</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3800.133275762642</v>
+        <v>3800.133275768247</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0331786757796</v>
+        <v>716.0331786758322</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487866949675</v>
+        <v>1004.487866949722</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6426631665779</v>
+        <v>308.6426631687954</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992725343294128</v>
+        <v>0.9992725343294361</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534470472108467e-05</v>
+        <v>1.534470472126517e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150906073069596</v>
+        <v>0.02150906073096879</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>246.0690979976139</v>
+        <v>246.0690980005434</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68499.67981687505</v>
+        <v>68499.67981838793</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9704638759133938</v>
+        <v>0.9704638759232509</v>
       </c>
       <c r="OL2" t="n">
-        <v>301580.7765618966</v>
+        <v>301580.776563993</v>
       </c>
       <c r="OM2" t="n">
-        <v>372165.248088365</v>
+        <v>372165.2480913033</v>
       </c>
       <c r="ON2" t="n">
-        <v>3800.133275771212</v>
+        <v>3800.133275776817</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562930.1193513747</v>
+        <v>-562930.1193609483</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2056506675079</v>
+        <v>716.2056506675631</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.720142897407</v>
+        <v>1004.720142897453</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402837497806673</v>
+        <v>1.402837497806629</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992999371498488</v>
+        <v>0.999299937149872</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5622301060797</v>
+        <v>314.5622301079546</v>
       </c>
       <c r="OU2" t="n">
-        <v>96026.81495276284</v>
+        <v>96026.81495488291</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041375787056893e-05</v>
+        <v>1.041375787033901e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68451.84499480527</v>
+        <v>68451.84499631867</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.460881003391346e-05</v>
+        <v>1.460881003359047e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004077109595075013</v>
+        <v>0.004077109595026314</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582826903960514e-05</v>
+        <v>1.582826903975841e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02224158540612589</v>
+        <v>0.02224158540635823</v>
       </c>
       <c r="PB2" t="n">
-        <v>68499.67981687505</v>
+        <v>68499.67981838793</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9704638759133938</v>
+        <v>0.9704638759232509</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9704638759133938</v>
+        <v>0.9704638759232509</v>
       </c>
       <c r="PE2" t="n">
-        <v>301580.7765618966</v>
+        <v>301580.776563993</v>
       </c>
       <c r="PF2" t="n">
-        <v>372165.248088365</v>
+        <v>372165.2480913033</v>
       </c>
       <c r="PG2" t="n">
-        <v>3800.133275771212</v>
+        <v>3800.133275776817</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2056506675079</v>
+        <v>716.2056506675631</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.720142897407</v>
+        <v>1004.720142897453</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5622301060797</v>
+        <v>314.5622301079546</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992999371498488</v>
+        <v>0.999299937149872</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582826903960514e-05</v>
+        <v>1.582826903975841e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02224158540612589</v>
+        <v>0.02224158540635823</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.1220053411919</v>
+        <v>268.1220053424481</v>
       </c>
       <c r="PQ2" t="n">
-        <v>92438.7052918117</v>
+        <v>92438.70528929798</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.201795435586725</v>
+        <v>1.201795435548374</v>
       </c>
       <c r="PS2" t="n">
-        <v>317338.8386982412</v>
+        <v>317338.8386991486</v>
       </c>
       <c r="PT2" t="n">
-        <v>394256.0099193837</v>
+        <v>394256.0099206541</v>
       </c>
       <c r="PU2" t="n">
-        <v>3800.133275762641</v>
+        <v>3800.13327577518</v>
       </c>
       <c r="PV2" t="n">
-        <v>-624643.3445418882</v>
+        <v>-624643.3445487533</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7730159695209</v>
+        <v>716.773015969547</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.433966599056</v>
+        <v>1005.433966599021</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402722959986276</v>
+        <v>1.402722959986175</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993891147805256</v>
+        <v>0.9993891147805581</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.3715632803192</v>
+        <v>328.3715632810872</v>
       </c>
       <c r="QB2" t="n">
-        <v>129587.0583047976</v>
+        <v>129587.0583012686</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.716819974784299e-06</v>
+        <v>7.716819974994451e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>92382.50317515692</v>
+        <v>92382.50317264773</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.082456055671065e-05</v>
+        <v>1.082456055700465e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003742382741083458</v>
+        <v>0.003742382741065402</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.6964241103337e-05</v>
+        <v>1.696424110340002e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02397139285365477</v>
+        <v>0.02397139285375059</v>
       </c>
       <c r="QI2" t="n">
-        <v>92438.7052918117</v>
+        <v>92438.70528929798</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.201795435586725</v>
+        <v>1.201795435548374</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.201795435586725</v>
+        <v>1.201795435548374</v>
       </c>
       <c r="QL2" t="n">
-        <v>317338.8386982412</v>
+        <v>317338.8386991486</v>
       </c>
       <c r="QM2" t="n">
-        <v>394256.0099193837</v>
+        <v>394256.0099206541</v>
       </c>
       <c r="QN2" t="n">
-        <v>3800.133275762641</v>
+        <v>3800.13327577518</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7730159695209</v>
+        <v>716.773015969547</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.433966599056</v>
+        <v>1005.433966599021</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.3715632803192</v>
+        <v>328.3715632810872</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993891147805256</v>
+        <v>0.9993891147805581</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.6964241103337e-05</v>
+        <v>1.696424110340002e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02397139285365477</v>
+        <v>0.02397139285375059</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4389204911938464</v>
+        <v>0.4389204911794615</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8102154609032407</v>
+        <v>0.8102154608698025</v>
       </c>
       <c r="QY2" t="n">
-        <v>374979.7236289562</v>
+        <v>374979.7236178523</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.790805431906836</v>
+        <v>2.790805431959769</v>
       </c>
       <c r="RA2" t="n">
-        <v>380593.4359541573</v>
+        <v>380593.4359554336</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02607389602785128</v>
+        <v>0.02607389602667455</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.002221780596169435</v>
+        <v>0.002221780594572868</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01178846742621167</v>
+        <v>0.01178846742622963</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03262518112891885</v>
+        <v>0.03262518112846527</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04229027499347278</v>
+        <v>0.04229027499124951</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.114999600172624</v>
+        <v>0.1149996001671918</v>
       </c>
       <c r="RH2" t="n">
-        <v>-1.348271494450159e-11</v>
+        <v>8.897382830497236e-11</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>82.52961504341143</v>
+        <v>82.52961504312884</v>
       </c>
       <c r="D3" t="n">
-        <v>82.52961504341143</v>
+        <v>82.52961504312884</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82.52961504341143</v>
+        <v>82.52961504312884</v>
       </c>
       <c r="H3" t="n">
-        <v>82.52961504341143</v>
+        <v>82.52961504312884</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.2043807643881</v>
+        <v>292.2043807645113</v>
       </c>
       <c r="L3" t="n">
-        <v>132537.5531722202</v>
+        <v>132537.5531724163</v>
       </c>
       <c r="M3" t="n">
-        <v>1.580936880352955</v>
+        <v>1.580936880354626</v>
       </c>
       <c r="N3" t="n">
-        <v>334544.0459659703</v>
+        <v>334544.0459660586</v>
       </c>
       <c r="O3" t="n">
-        <v>418378.8624088825</v>
+        <v>418378.8624090062</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687006.158663988</v>
+        <v>-687006.1586643301</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7062138288375</v>
+        <v>717.7062138288429</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.639892666682</v>
+        <v>1006.639892666688</v>
       </c>
       <c r="T3" t="n">
-        <v>1.40257931904537</v>
+        <v>1.402579319045368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994969313066006</v>
+        <v>0.9994969313066014</v>
       </c>
       <c r="V3" t="n">
-        <v>342.8212838341275</v>
+        <v>342.8212838341999</v>
       </c>
       <c r="W3" t="n">
-        <v>185801.8717921959</v>
+        <v>185801.8717924707</v>
       </c>
       <c r="X3" t="n">
-        <v>5.3820771037141e-06</v>
+        <v>5.38207710370614e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132471.5609799931</v>
+        <v>132471.5609801892</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.548790039177e-06</v>
+        <v>7.548790039165825e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003435197102770383</v>
+        <v>0.003435197102768937</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.816416388199417e-05</v>
+        <v>1.81641638820002e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02581314531333942</v>
+        <v>0.02581314531334871</v>
       </c>
       <c r="AD3" t="n">
-        <v>132537.5531722202</v>
+        <v>132537.5531724163</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.580936880352955</v>
+        <v>1.580936880354626</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580936880352955</v>
+        <v>1.580936880354626</v>
       </c>
       <c r="AG3" t="n">
-        <v>334544.0459659703</v>
+        <v>334544.0459660586</v>
       </c>
       <c r="AH3" t="n">
-        <v>418378.8624088825</v>
+        <v>418378.8624090062</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7062138288375</v>
+        <v>717.7062138288429</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.639892666682</v>
+        <v>1006.639892666688</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.8212838341275</v>
+        <v>342.8212838341999</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994969313066006</v>
+        <v>0.9994969313066014</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.816416388199417e-05</v>
+        <v>1.81641638820002e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02581314531333942</v>
+        <v>0.02581314531334871</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2407365555615356</v>
+        <v>0.2407365555606605</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2407365555615356</v>
+        <v>0.2407365555606605</v>
       </c>
       <c r="DH3" t="n">
-        <v>187908.6092730309</v>
+        <v>187908.6092725238</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.801075364070028</v>
+        <v>2.801075364063397</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>278.0045424850038</v>
+        <v>278.0045424773879</v>
       </c>
       <c r="DU3" t="n">
-        <v>115.995857389665</v>
+        <v>115.995857388958</v>
       </c>
       <c r="DV3" t="n">
-        <v>252.6489396588333</v>
+        <v>252.6489396507776</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.33925894834773</v>
+        <v>65.33925894778744</v>
       </c>
       <c r="DX3" t="n">
-        <v>278.0045424850038</v>
+        <v>278.0045424773879</v>
       </c>
       <c r="DY3" t="n">
-        <v>115.995857389665</v>
+        <v>115.995857388958</v>
       </c>
       <c r="DZ3" t="n">
-        <v>252.6489396588333</v>
+        <v>252.6489396507776</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.33925894834775</v>
+        <v>65.33925894778744</v>
       </c>
       <c r="EB3" t="n">
-        <v>257.0374670997502</v>
+        <v>257.0374671018595</v>
       </c>
       <c r="EC3" t="n">
-        <v>82934.74269942602</v>
+        <v>82934.74270037333</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.124816998465194</v>
+        <v>1.124816998468789</v>
       </c>
       <c r="EE3" t="n">
-        <v>309409.4031780182</v>
+        <v>309409.4031795288</v>
       </c>
       <c r="EF3" t="n">
-        <v>383141.1682674416</v>
+        <v>383141.1682695588</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.919886547686</v>
+        <v>3788.919886552646</v>
       </c>
       <c r="EH3" t="n">
-        <v>-590753.202414649</v>
+        <v>-590753.2024217985</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.4704925479044</v>
+        <v>716.4704925479531</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.118615028103</v>
+        <v>1005.118615028138</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402875101602176</v>
+        <v>1.402875101602131</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993139907805222</v>
+        <v>0.9993139907805428</v>
       </c>
       <c r="EM3" t="n">
-        <v>321.5054477185947</v>
+        <v>321.5054477199153</v>
       </c>
       <c r="EN3" t="n">
-        <v>116267.5559353964</v>
+        <v>116267.5559367231</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.600851647347312e-06</v>
+        <v>8.60085164724917e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>82878.05222475699</v>
+        <v>82878.05222570538</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.20659206286376e-05</v>
+        <v>1.206592062849953e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003903977621435223</v>
+        <v>0.003903977621403019</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.639853367012597e-05</v>
+        <v>1.639853367023441e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02310880889604183</v>
+        <v>0.02310880889620676</v>
       </c>
       <c r="EU3" t="n">
-        <v>82934.74269942602</v>
+        <v>82934.74270037333</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.124816998465194</v>
+        <v>1.124816998468789</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.124816998465194</v>
+        <v>1.124816998468789</v>
       </c>
       <c r="EX3" t="n">
-        <v>309409.4031780182</v>
+        <v>309409.4031795288</v>
       </c>
       <c r="EY3" t="n">
-        <v>383141.1682674416</v>
+        <v>383141.1682695588</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.919886547686</v>
+        <v>3788.919886552646</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.4704925479044</v>
+        <v>716.4704925479531</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.118615028103</v>
+        <v>1005.118615028138</v>
       </c>
       <c r="FC3" t="n">
-        <v>321.5054477185947</v>
+        <v>321.5054477199153</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993139907805222</v>
+        <v>0.9993139907805428</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.639853367012597e-05</v>
+        <v>1.639853367023441e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02310880889604183</v>
+        <v>0.02310880889620676</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5933755788782</v>
+        <v>295.593375578873</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135142.8784073513</v>
+        <v>135142.8784050157</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.593477963214629</v>
+        <v>1.593477963187105</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.4233400553</v>
+        <v>336974.4233400564</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.919886547386</v>
+        <v>3788.919886552346</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698195.1879738924</v>
+        <v>-698195.1879753385</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8557944799272</v>
+        <v>717.8557944799211</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.774673229023</v>
+        <v>1006.774673228985</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402474815932094</v>
+        <v>1.402474815932052</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995307875089356</v>
+        <v>0.9995307875089436</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8024274224542</v>
+        <v>344.8024274224488</v>
       </c>
       <c r="FU3" t="n">
-        <v>189446.5457644777</v>
+        <v>189446.5457611994</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.278533825806528e-06</v>
+        <v>5.27853382589787e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135080.1765652884</v>
+        <v>135080.176562955</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.403010755739343e-06</v>
+        <v>7.403010755867228e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395610227215517</v>
+        <v>0.00339561022721536</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832921822184876e-05</v>
+        <v>1.832921822184818e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606722400100808</v>
+        <v>0.02606722400100694</v>
       </c>
       <c r="GB3" t="n">
-        <v>135142.8784073513</v>
+        <v>135142.8784050157</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.593477963214629</v>
+        <v>1.593477963187105</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.593477963214629</v>
+        <v>1.593477963187105</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.4233400553</v>
+        <v>336974.4233400564</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.919886547386</v>
+        <v>3788.919886552346</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8557944799272</v>
+        <v>717.8557944799211</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.774673229023</v>
+        <v>1006.774673228985</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8024274224542</v>
+        <v>344.8024274224488</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995307875089356</v>
+        <v>0.9995307875089436</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832921822184876e-05</v>
+        <v>1.832921822184818e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606722400100808</v>
+        <v>0.02606722400100694</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5933755788782</v>
+        <v>295.593375578873</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135142.8784073513</v>
+        <v>135142.8784050157</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.593477963214629</v>
+        <v>1.593477963187105</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.4233400553</v>
+        <v>336974.4233400564</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.919886547386</v>
+        <v>3788.919886552346</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698195.1879738924</v>
+        <v>-698195.1879753385</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8557944799272</v>
+        <v>717.8557944799211</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.774673229023</v>
+        <v>1006.774673228985</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402474815932094</v>
+        <v>1.402474815932052</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995307875089356</v>
+        <v>0.9995307875089436</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8024274224542</v>
+        <v>344.8024274224488</v>
       </c>
       <c r="HB3" t="n">
-        <v>189446.5457644777</v>
+        <v>189446.5457611994</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.278533825806528e-06</v>
+        <v>5.27853382589787e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135080.1765652884</v>
+        <v>135080.176562955</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.403010755739343e-06</v>
+        <v>7.403010755867228e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395610227215517</v>
+        <v>0.00339561022721536</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832921822184876e-05</v>
+        <v>1.832921822184818e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606722400100808</v>
+        <v>0.02606722400100694</v>
       </c>
       <c r="HI3" t="n">
-        <v>135142.8784073513</v>
+        <v>135142.8784050157</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.593477963214629</v>
+        <v>1.593477963187105</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.593477963214629</v>
+        <v>1.593477963187105</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.4233400553</v>
+        <v>336974.4233400564</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.919886547386</v>
+        <v>3788.919886552346</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8557944799272</v>
+        <v>717.8557944799211</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.774673229023</v>
+        <v>1006.774673228985</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8024274224542</v>
+        <v>344.8024274224488</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995307875089356</v>
+        <v>0.9995307875089436</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832921822184876e-05</v>
+        <v>1.832921822184818e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606722400100808</v>
+        <v>0.02606722400100694</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8646962110835953</v>
+        <v>0.8646962110563552</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8646962110835953</v>
+        <v>0.8646962110563552</v>
       </c>
       <c r="HY3" t="n">
-        <v>498845.9915466727</v>
+        <v>498845.9915313024</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.801075364069569</v>
+        <v>2.801075364061447</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01561192565419374</v>
+        <v>0.0156119256537011</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.824277019584135e-07</v>
+        <v>-1.824277019664985e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01377981236503548</v>
+        <v>0.0137798123650177</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02533404515298725</v>
+        <v>0.02533404515323136</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.05472560074451452</v>
+        <v>0.05472560074424819</v>
       </c>
       <c r="IH3" t="n">
-        <v>-3.284733596231604e-13</v>
+        <v>-3.420180805235873e-14</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>278.0045424850038</v>
+        <v>278.0045424773879</v>
       </c>
       <c r="IL3" t="n">
-        <v>115.9958573896651</v>
+        <v>115.995857388958</v>
       </c>
       <c r="IM3" t="n">
-        <v>252.6489396588332</v>
+        <v>252.6489396507776</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.33925894834773</v>
+        <v>65.33925894778744</v>
       </c>
       <c r="IO3" t="n">
-        <v>145.2043978952159</v>
+        <v>145.2043978898054</v>
       </c>
       <c r="IP3" t="n">
-        <v>115.9958573896651</v>
+        <v>115.995857388958</v>
       </c>
       <c r="IQ3" t="n">
-        <v>87.34573965883322</v>
+        <v>87.3457396507776</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.98001800816273</v>
+        <v>36.98001800579132</v>
       </c>
       <c r="IS3" t="n">
-        <v>257.0374670997452</v>
+        <v>257.0374671017547</v>
       </c>
       <c r="IT3" t="n">
-        <v>82934.74269783491</v>
+        <v>82934.74269866895</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.124816998443622</v>
+        <v>1.124816998446117</v>
       </c>
       <c r="IV3" t="n">
-        <v>309409.4031780186</v>
+        <v>309409.4031794576</v>
       </c>
       <c r="IW3" t="n">
-        <v>383141.1682674414</v>
+        <v>383141.1682694584</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.919886553189</v>
+        <v>3788.919886558151</v>
       </c>
       <c r="IY3" t="n">
-        <v>-590753.2024160443</v>
+        <v>-590753.2024229165</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.4704925478983</v>
+        <v>716.4704925479446</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.118615028066</v>
+        <v>1005.118615028098</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402875101602137</v>
+        <v>1.402875101602092</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993139907805353</v>
+        <v>0.9993139907805555</v>
       </c>
       <c r="JD3" t="n">
-        <v>321.5054477185913</v>
+        <v>321.5054477198494</v>
       </c>
       <c r="JE3" t="n">
-        <v>116267.5559331641</v>
+        <v>116267.5559343319</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.600851647512448e-06</v>
+        <v>8.600851647426056e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>82878.05222316805</v>
+        <v>82878.05222400319</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.206592062886893e-05</v>
+        <v>1.206592062874735e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003903977621435043</v>
+        <v>0.00390397762140435</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.639853367012546e-05</v>
+        <v>1.639853367022876e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02310880889604083</v>
+        <v>0.02310880889619794</v>
       </c>
       <c r="JL3" t="n">
-        <v>82934.74269783491</v>
+        <v>82934.74269866895</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.124816998443622</v>
+        <v>1.124816998446117</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.124816998443622</v>
+        <v>1.124816998446117</v>
       </c>
       <c r="JO3" t="n">
-        <v>309409.4031780186</v>
+        <v>309409.4031794576</v>
       </c>
       <c r="JP3" t="n">
-        <v>383141.1682674414</v>
+        <v>383141.1682694584</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.919886553189</v>
+        <v>3788.919886558151</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.4704925478983</v>
+        <v>716.4704925479446</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.118615028066</v>
+        <v>1005.118615028098</v>
       </c>
       <c r="JT3" t="n">
-        <v>321.5054477185913</v>
+        <v>321.5054477198494</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993139907805353</v>
+        <v>0.9993139907805555</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.639853367012546e-05</v>
+        <v>1.639853367022876e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02310880889604083</v>
+        <v>0.02310880889619794</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5933755787719</v>
+        <v>295.5933755787668</v>
       </c>
       <c r="KA3" t="n">
-        <v>135142.878404599</v>
+        <v>135142.8784022624</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.593477963182737</v>
+        <v>1.593477963155201</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.4233399846</v>
+        <v>336974.4233399855</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.919886552889</v>
+        <v>3788.919886557851</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698195.1879752171</v>
+        <v>-698195.1879766637</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8557944799156</v>
+        <v>717.8557944799095</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.774673228975</v>
+        <v>1006.774673228937</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402474815932049</v>
+        <v>1.402474815932008</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995307875089438</v>
+        <v>0.9995307875089517</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8024274223896</v>
+        <v>344.8024274223841</v>
       </c>
       <c r="KL3" t="n">
-        <v>189446.5457606151</v>
+        <v>189446.5457573353</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.278533825914152e-06</v>
+        <v>5.278533826005535e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135080.1765625386</v>
+        <v>135080.1765602041</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.403010755890049e-06</v>
+        <v>7.403010756017991e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395610227216495</v>
+        <v>0.003395610227216338</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832921822184322e-05</v>
+        <v>1.832921822184263e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606722400099927</v>
+        <v>0.02606722400099814</v>
       </c>
       <c r="KS3" t="n">
-        <v>135142.878404599</v>
+        <v>135142.8784022624</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.593477963182737</v>
+        <v>1.593477963155201</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.593477963182737</v>
+        <v>1.593477963155201</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.4233399846</v>
+        <v>336974.4233399855</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.919886552889</v>
+        <v>3788.919886557851</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8557944799156</v>
+        <v>717.8557944799095</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.774673228975</v>
+        <v>1006.774673228937</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8024274223896</v>
+        <v>344.8024274223841</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995307875089438</v>
+        <v>0.9995307875089517</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832921822184322e-05</v>
+        <v>1.832921822184263e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606722400099927</v>
+        <v>0.02606722400099814</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>267.5608469977766</v>
+        <v>267.5608469992013</v>
       </c>
       <c r="LH3" t="n">
-        <v>95409.78892429125</v>
+        <v>95409.78892442158</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.243057550905534</v>
+        <v>1.243057550900591</v>
       </c>
       <c r="LJ3" t="n">
-        <v>316929.2064531395</v>
+        <v>316929.2064541615</v>
       </c>
       <c r="LK3" t="n">
-        <v>393683.3268514975</v>
+        <v>393683.3268529294</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.919886554389</v>
+        <v>3788.919886559348</v>
       </c>
       <c r="LM3" t="n">
-        <v>-620083.2872017144</v>
+        <v>-620083.2872070075</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.7674741389346</v>
+        <v>716.7674741389732</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.4886350788</v>
+        <v>1005.48863507882</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.40281007628968</v>
+        <v>1.402810076289632</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993621730097553</v>
+        <v>0.9993621730097733</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.0291303253238</v>
+        <v>328.0291303261974</v>
       </c>
       <c r="LS3" t="n">
-        <v>133756.8588115299</v>
+        <v>133756.8588117104</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.476252125575483e-06</v>
+        <v>7.476252125565391e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>95349.22871762229</v>
+        <v>95349.22871775425</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.048776181463943e-05</v>
+        <v>1.048776181462491e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003750723525149456</v>
+        <v>0.003750723525129294</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.693635799608182e-05</v>
+        <v>1.693635799615381e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02392923167036851</v>
+        <v>0.02392923167047831</v>
       </c>
       <c r="LZ3" t="n">
-        <v>95409.78892429125</v>
+        <v>95409.78892442158</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.243057550905534</v>
+        <v>1.243057550900591</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.243057550905534</v>
+        <v>1.243057550900591</v>
       </c>
       <c r="MC3" t="n">
-        <v>316929.2064531395</v>
+        <v>316929.2064541615</v>
       </c>
       <c r="MD3" t="n">
-        <v>393683.3268514975</v>
+        <v>393683.3268529294</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.919886554389</v>
+        <v>3788.919886559348</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.7674741389346</v>
+        <v>716.7674741389732</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.4886350788</v>
+        <v>1005.48863507882</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.0291303253238</v>
+        <v>328.0291303261974</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993621730097553</v>
+        <v>0.9993621730097733</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.693635799608182e-05</v>
+        <v>1.693635799615381e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02392923167036851</v>
+        <v>0.02392923167047831</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8646962110836046</v>
+        <v>0.8646962110565326</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4516389968679819</v>
+        <v>0.4516389968493856</v>
       </c>
       <c r="MP3" t="n">
-        <v>259555.9784889949</v>
+        <v>259555.9784782642</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.80107536401585</v>
+        <v>2.801075364004989</v>
       </c>
       <c r="MR3" t="n">
-        <v>380020.7528863774</v>
+        <v>380020.7528877092</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>142.2541798763214</v>
+        <v>142.2541798765498</v>
       </c>
       <c r="MU3" t="n">
-        <v>129.9830867719943</v>
+        <v>129.9830867720786</v>
       </c>
       <c r="MV3" t="n">
-        <v>-57.79834639078356</v>
+        <v>-57.79834639115597</v>
       </c>
       <c r="MW3" t="n">
-        <v>-23.97282605742824</v>
+        <v>-23.9728260575515</v>
       </c>
       <c r="MX3" t="n">
-        <v>258.2051565107381</v>
+        <v>258.2051565111023</v>
       </c>
       <c r="MY3" t="n">
-        <v>129.9830867719943</v>
+        <v>129.9830867720786</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-223.1015463907836</v>
+        <v>-223.101546391156</v>
       </c>
       <c r="NA3" t="n">
-        <v>-59.77413117869762</v>
+        <v>-59.77413117872305</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.2675760744539</v>
+        <v>234.267576075686</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000197057</v>
+        <v>57500.00000390804</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8556917874582988</v>
+        <v>0.8556917874826379</v>
       </c>
       <c r="NE3" t="n">
-        <v>293151.2831508493</v>
+        <v>293151.283151727</v>
       </c>
       <c r="NF3" t="n">
-        <v>360348.3754272232</v>
+        <v>360348.3754284537</v>
       </c>
       <c r="NG3" t="n">
-        <v>3801.131194284314</v>
+        <v>3801.131194279902</v>
       </c>
       <c r="NH3" t="n">
-        <v>-530133.4157987569</v>
+        <v>-530133.4158011761</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9885931999544</v>
+        <v>715.9885931999784</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421377282739</v>
+        <v>1004.421377282792</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402845501760995</v>
+        <v>1.402845501761022</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992681996164308</v>
+        <v>0.9992681996164227</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.9173694657484</v>
+        <v>306.9173694665561</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.68746914888</v>
+        <v>80604.68747186579</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622637961032e-05</v>
+        <v>1.240622637919215e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.99331998119</v>
+        <v>57457.99332191679</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740401887046492e-05</v>
+        <v>1.740401886987863e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004282029684727555</v>
+        <v>0.004282029684705284</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.520413469663547e-05</v>
+        <v>1.520413469670139e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02129651313155231</v>
+        <v>0.02129651313165206</v>
       </c>
       <c r="NU3" t="n">
-        <v>57500.00000197057</v>
+        <v>57500.00000390804</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8556917874582988</v>
+        <v>0.8556917874826379</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8556917874582988</v>
+        <v>0.8556917874826379</v>
       </c>
       <c r="NX3" t="n">
-        <v>293151.2831508493</v>
+        <v>293151.283151727</v>
       </c>
       <c r="NY3" t="n">
-        <v>360348.3754272232</v>
+        <v>360348.3754284537</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3801.131194284314</v>
+        <v>3801.131194279902</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9885931999544</v>
+        <v>715.9885931999784</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421377282739</v>
+        <v>1004.421377282792</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.9173694657484</v>
+        <v>306.9173694665561</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992681996164308</v>
+        <v>0.9992681996164227</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.520413469663547e-05</v>
+        <v>1.520413469670139e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02129651313155231</v>
+        <v>0.02129651313165206</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.3720243339739</v>
+        <v>244.3720243352459</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66632.99544719401</v>
+        <v>66632.99544942639</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9505765335280193</v>
+        <v>0.9505765335549247</v>
       </c>
       <c r="OL3" t="n">
-        <v>300369.0466266764</v>
+        <v>300369.0466275821</v>
       </c>
       <c r="OM3" t="n">
-        <v>370466.5012733726</v>
+        <v>370466.5012746427</v>
       </c>
       <c r="ON3" t="n">
-        <v>3801.131194302723</v>
+        <v>3801.13119429831</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558423.6234373999</v>
+        <v>-558423.6234398861</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1701763799159</v>
+        <v>716.1701763799455</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.668498245096</v>
+        <v>1004.668498245156</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.40283487274418</v>
+        <v>1.402834872744205</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992968807355974</v>
+        <v>0.9992968807355906</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4743613851246</v>
+        <v>313.4743613859412</v>
       </c>
       <c r="OU3" t="n">
-        <v>93409.52022822051</v>
+        <v>93409.52023135108</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.070554690310768e-05</v>
+        <v>1.070554690274889e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66586.25476389527</v>
+        <v>66586.25476612561</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.50181145274779e-05</v>
+        <v>1.501811452697486e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.00410532130257882</v>
+        <v>0.004105321302557697</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573920277606123e-05</v>
+        <v>1.573920277612821e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210645759375964</v>
+        <v>0.02210645759386135</v>
       </c>
       <c r="PB3" t="n">
-        <v>66632.99544719401</v>
+        <v>66632.99544942639</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9505765335280193</v>
+        <v>0.9505765335549247</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9505765335280193</v>
+        <v>0.9505765335549247</v>
       </c>
       <c r="PE3" t="n">
-        <v>300369.0466266764</v>
+        <v>300369.0466275821</v>
       </c>
       <c r="PF3" t="n">
-        <v>370466.5012733726</v>
+        <v>370466.5012746427</v>
       </c>
       <c r="PG3" t="n">
-        <v>3801.131194302723</v>
+        <v>3801.13119429831</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1701763799159</v>
+        <v>716.1701763799455</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.668498245096</v>
+        <v>1004.668498245156</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4743613851246</v>
+        <v>313.4743613859412</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992968807355974</v>
+        <v>0.9992968807355906</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573920277606123e-05</v>
+        <v>1.573920277612821e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210645759375964</v>
+        <v>0.02210645759386135</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>267.5495628172719</v>
+        <v>267.5495628187924</v>
       </c>
       <c r="PQ3" t="n">
-        <v>91433.66777743935</v>
+        <v>91433.66777621213</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.191273068330339</v>
+        <v>1.191273068307546</v>
       </c>
       <c r="PS3" t="n">
-        <v>316930.4225776604</v>
+        <v>316930.4225787543</v>
       </c>
       <c r="PT3" t="n">
-        <v>393683.3268513972</v>
+        <v>393683.3268529295</v>
       </c>
       <c r="PU3" t="n">
-        <v>3801.131194287052</v>
+        <v>3801.131194296629</v>
       </c>
       <c r="PV3" t="n">
-        <v>-623307.662391198</v>
+        <v>-623307.6623980078</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7542328845506</v>
+        <v>716.7542328845874</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.40576833209</v>
+        <v>1005.405768332084</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402720377786779</v>
+        <v>1.402720377786698</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993884871635117</v>
+        <v>0.9993884871635391</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.0203213053065</v>
+        <v>328.0203213062381</v>
       </c>
       <c r="QB3" t="n">
-        <v>128177.8028699575</v>
+        <v>128177.8028682331</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.801662827802937e-06</v>
+        <v>7.801662827907892e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>91378.01439243165</v>
+        <v>91378.0143912077</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.094355142918081e-05</v>
+        <v>1.094355142932739e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003750331145287794</v>
+        <v>0.003750331145266095</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.69351820771764e-05</v>
+        <v>1.693518207725303e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02392694597239309</v>
+        <v>0.02392694597250981</v>
       </c>
       <c r="QI3" t="n">
-        <v>91433.66777743935</v>
+        <v>91433.66777621213</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.191273068330339</v>
+        <v>1.191273068307546</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.191273068330339</v>
+        <v>1.191273068307546</v>
       </c>
       <c r="QL3" t="n">
-        <v>316930.4225776604</v>
+        <v>316930.4225787543</v>
       </c>
       <c r="QM3" t="n">
-        <v>393683.3268513972</v>
+        <v>393683.3268529295</v>
       </c>
       <c r="QN3" t="n">
-        <v>3801.131194287052</v>
+        <v>3801.131194296629</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7542328845506</v>
+        <v>716.7542328845874</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.40576833209</v>
+        <v>1005.405768332084</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.0203213053065</v>
+        <v>328.0203213062381</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993884871635117</v>
+        <v>0.9993884871635391</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.69351820771764e-05</v>
+        <v>1.693518207725303e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02392694597239309</v>
+        <v>0.02392694597250981</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4634934155859066</v>
+        <v>0.4634934155854311</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8412855778094157</v>
+        <v>0.8412855778083886</v>
       </c>
       <c r="QY3" t="n">
-        <v>378699.7146726599</v>
+        <v>378699.7146823238</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.801075364110754</v>
+        <v>2.801075364192245</v>
       </c>
       <c r="RA3" t="n">
-        <v>380020.7528863774</v>
+        <v>380020.7528877092</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02693962188921643</v>
+        <v>0.02693962188707154</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.00276612513190982</v>
+        <v>0.00276612513009967</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01174717696684393</v>
+        <v>0.01174717696695905</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03296430785496189</v>
+        <v>0.03296430785394792</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04275610682356986</v>
+        <v>0.04275610682187619</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1171733386665019</v>
+        <v>0.1171733386599544</v>
       </c>
       <c r="RH3" t="n">
-        <v>1.179763231551334e-11</v>
+        <v>1.531219595563016e-11</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -7559,145 +7559,145 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01561897651710651</v>
+        <v>0.01561897651666977</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.808493700681213e-07</v>
+        <v>-1.808493700767934e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01378013287983339</v>
+        <v>0.01378013287981708</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02533043296343442</v>
+        <v>0.02533043296365975</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05472936151100424</v>
+        <v>0.05472936151077651</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.243808611135378e-11</v>
+        <v>-2.142757499212777e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>274.1678062470673</v>
+        <v>274.1678062393254</v>
       </c>
       <c r="K2" t="n">
-        <v>112.0265245554338</v>
+        <v>112.0265245522704</v>
       </c>
       <c r="L2" t="n">
-        <v>250.2359761871986</v>
+        <v>250.2359761801325</v>
       </c>
       <c r="M2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N2" t="n">
-        <v>274.1678062470673</v>
+        <v>274.1678062393254</v>
       </c>
       <c r="O2" t="n">
-        <v>112.0265245554338</v>
+        <v>112.0265245522704</v>
       </c>
       <c r="P2" t="n">
-        <v>250.2359761871986</v>
+        <v>250.2359761801325</v>
       </c>
       <c r="Q2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R2" t="n">
-        <v>258.1003988438043</v>
+        <v>258.1003988461109</v>
       </c>
       <c r="S2" t="n">
-        <v>85911.41387716852</v>
+        <v>85911.41387984977</v>
       </c>
       <c r="T2" t="n">
-        <v>1.160401424004007</v>
+        <v>1.160401424029841</v>
       </c>
       <c r="U2" t="n">
-        <v>310164.4949313427</v>
+        <v>310164.4949329909</v>
       </c>
       <c r="V2" t="n">
-        <v>384200.4380972241</v>
+        <v>384200.4380995347</v>
       </c>
       <c r="W2" t="n">
         <v>3782.917347711062</v>
       </c>
       <c r="X2" t="n">
-        <v>-592172.0381401473</v>
+        <v>-592172.0381465624</v>
       </c>
       <c r="Y2" t="n">
-        <v>716.5043828473567</v>
+        <v>716.5043828474172</v>
       </c>
       <c r="Z2" t="n">
-        <v>1005.193756831265</v>
+        <v>1005.193756831341</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402913619085859</v>
+        <v>1.402913619085847</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9993041882928859</v>
+        <v>0.9993041882928959</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.1708149431748</v>
+        <v>322.1708149446163</v>
       </c>
       <c r="AD2" t="n">
-        <v>120442.7448580541</v>
+        <v>120442.7448618133</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.302700184876511e-06</v>
+        <v>8.302700184617368e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>85851.86088401852</v>
+        <v>85851.86088669882</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.164797116454993e-05</v>
+        <v>1.164797116418628e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003888215538511088</v>
+        <v>0.003888215538476409</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.645352168430091e-05</v>
+        <v>1.645352168441955e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02319279784491112</v>
+        <v>0.02319279784509185</v>
       </c>
       <c r="AK2" t="n">
-        <v>85911.41387716852</v>
+        <v>85911.41387984977</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.160401424004007</v>
+        <v>1.160401424029841</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.160401424004007</v>
+        <v>1.160401424029841</v>
       </c>
       <c r="AN2" t="n">
-        <v>310164.4949313427</v>
+        <v>310164.4949329909</v>
       </c>
       <c r="AO2" t="n">
-        <v>384200.4380972241</v>
+        <v>384200.4380995347</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.917347711062</v>
       </c>
       <c r="AQ2" t="n">
-        <v>716.5043828473567</v>
+        <v>716.5043828474172</v>
       </c>
       <c r="AR2" t="n">
-        <v>1005.193756831265</v>
+        <v>1005.193756831341</v>
       </c>
       <c r="AS2" t="n">
-        <v>322.1708149431748</v>
+        <v>322.1708149446163</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9993041882928859</v>
+        <v>0.9993041882928959</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.645352168430091e-05</v>
+        <v>1.645352168441955e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02319279784491112</v>
+        <v>0.02319279784509185</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.6000000000886</v>
+        <v>295.6000000000885</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999951877</v>
+        <v>137999.9999951879</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755047</v>
       </c>
       <c r="BB2" t="n">
         <v>336973.3475828946</v>
@@ -7726,10 +7726,10 @@
         <v>3782.91734772336</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368987706</v>
+        <v>-696445.9368987704</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8632360362553</v>
+        <v>717.8632360362554</v>
       </c>
       <c r="BG2" t="n">
         <v>1006.821582550249</v>
@@ -7744,19 +7744,19 @@
         <v>344.8092213940488</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974370098</v>
+        <v>193456.8974370102</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087303054e-06</v>
+        <v>5.169110087303045e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617460247</v>
+        <v>137934.6617460249</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346988305e-06</v>
+        <v>7.249809346988293e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695745236</v>
+        <v>0.003395798695745238</v>
       </c>
       <c r="BP2" t="n">
         <v>1.832995174012118e-05</v>
@@ -7765,13 +7765,13 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999951877</v>
+        <v>137999.9999951879</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755047</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755047</v>
       </c>
       <c r="BU2" t="n">
         <v>336973.3475828946</v>
@@ -7783,7 +7783,7 @@
         <v>3782.91734772336</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8632360362553</v>
+        <v>717.8632360362554</v>
       </c>
       <c r="BY2" t="n">
         <v>1006.821582550249</v>
@@ -7809,13 +7809,13 @@
         <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>295.6000000000886</v>
+        <v>295.6000000000885</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999951877</v>
+        <v>137999.9999951879</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755047</v>
       </c>
       <c r="CI2" t="n">
         <v>336973.3475828946</v>
@@ -7827,10 +7827,10 @@
         <v>3782.91734772336</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368987706</v>
+        <v>-696445.9368987704</v>
       </c>
       <c r="CM2" t="n">
-        <v>717.8632360362553</v>
+        <v>717.8632360362554</v>
       </c>
       <c r="CN2" t="n">
         <v>1006.821582550249</v>
@@ -7845,19 +7845,19 @@
         <v>344.8092213940488</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974370098</v>
+        <v>193456.8974370102</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087303054e-06</v>
+        <v>5.169110087303045e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617460247</v>
+        <v>137934.6617460249</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346988305e-06</v>
+        <v>7.249809346988293e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695745236</v>
+        <v>0.003395798695745238</v>
       </c>
       <c r="CW2" t="n">
         <v>1.832995174012118e-05</v>
@@ -7866,13 +7866,13 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999951877</v>
+        <v>137999.9999951879</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755047</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755047</v>
       </c>
       <c r="DB2" t="n">
         <v>336973.3475828946</v>
@@ -7884,7 +7884,7 @@
         <v>3782.91734772336</v>
       </c>
       <c r="DE2" t="n">
-        <v>717.8632360362553</v>
+        <v>717.8632360362554</v>
       </c>
       <c r="DF2" t="n">
         <v>1006.821582550249</v>
@@ -7910,37 +7910,37 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.01607522977154368</v>
+        <v>0.01607522977154078</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.810779379427775e-07</v>
+        <v>-1.810779379514326e-07</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.01379738282249398</v>
+        <v>0.01379738282249379</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.02509842428958693</v>
+        <v>0.02509842428959148</v>
       </c>
       <c r="DQ2" t="n">
         <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.05497085580568663</v>
+        <v>0.05497085580568809</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.05497085575742571</v>
+        <v>-0.05497085580568809</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.8510013742102172</v>
+        <v>0.8510013741823789</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.8510013742102172</v>
+        <v>0.8510013741823789</v>
       </c>
       <c r="DV2" t="n">
-        <v>505828.8338599643</v>
+        <v>505828.8338532948</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.79080543183282</v>
+        <v>2.790805431816145</v>
       </c>
       <c r="DX2" t="n">
         <v>421784.4310884894</v>
@@ -7949,166 +7949,166 @@
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1509.720682752202</v>
+        <v>1509.720683964202</v>
       </c>
       <c r="EA2" t="n">
         <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.006627777969786681</v>
+        <v>0.006627777978105017</v>
       </c>
       <c r="EC2" t="n">
-        <v>-7.674187034435372e-08</v>
+        <v>-7.674187044649609e-08</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.01074875075049479</v>
+        <v>0.01074875076438141</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.005847480532521634</v>
+        <v>0.005847480540017227</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.02607389602785128</v>
+        <v>0.02607389602667455</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.002221780596169435</v>
+        <v>0.002221780594572868</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.01178846742621167</v>
+        <v>0.01178846742622963</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.03262518112891885</v>
+        <v>0.03262518112846527</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.04229027499347278</v>
+        <v>0.04229027499124951</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.114999600172624</v>
+        <v>0.1149996001671918</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.348271494450159e-11</v>
+        <v>8.897382830497236e-11</v>
       </c>
       <c r="EN2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EO2" t="n">
-        <v>132.0703461872652</v>
+        <v>132.0703461807177</v>
       </c>
       <c r="EP2" t="n">
-        <v>120.6414701023216</v>
+        <v>120.6414700983589</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-53.7420881021078</v>
+        <v>-53.74208809491284</v>
       </c>
       <c r="ER2" t="n">
-        <v>-24.01151114395424</v>
+        <v>-24.01151114180253</v>
       </c>
       <c r="ES2" t="n">
-        <v>250.0703951854053</v>
+        <v>250.0703951771912</v>
       </c>
       <c r="ET2" t="n">
-        <v>120.6414701023216</v>
+        <v>120.6414700983589</v>
       </c>
       <c r="EU2" t="n">
-        <v>-219.0452881021078</v>
+        <v>-219.0452880949128</v>
       </c>
       <c r="EV2" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="EW2" t="n">
-        <v>236.9136066839255</v>
+        <v>236.9136066873483</v>
       </c>
       <c r="EX2" t="n">
-        <v>62420.87548257214</v>
+        <v>62420.87548476703</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.9185702062558874</v>
+        <v>0.9185702062748963</v>
       </c>
       <c r="EZ2" t="n">
-        <v>295034.0214274664</v>
+        <v>295034.0214299138</v>
       </c>
       <c r="FA2" t="n">
-        <v>362988.4086451849</v>
+        <v>362988.4086486155</v>
       </c>
       <c r="FB2" t="n">
-        <v>3788.783891571999</v>
+        <v>3788.783891576393</v>
       </c>
       <c r="FC2" t="n">
-        <v>-534626.0480530963</v>
+        <v>-534626.0480636748</v>
       </c>
       <c r="FD2" t="n">
-        <v>716.0444568079062</v>
+        <v>716.04445680796</v>
       </c>
       <c r="FE2" t="n">
-        <v>1004.555855530271</v>
+        <v>1004.555855530326</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.402923863147458</v>
+        <v>1.402923863147429</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.9992433487767282</v>
+        <v>0.9992433487767494</v>
       </c>
       <c r="FH2" t="n">
-        <v>308.6467825568729</v>
+        <v>308.6467825591059</v>
       </c>
       <c r="FI2" t="n">
-        <v>87505.60326458642</v>
+        <v>87505.60326766339</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.142783962046806e-05</v>
+        <v>1.142783962006622e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>62373.73642520251</v>
+        <v>62373.73642739706</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.603238890777663e-05</v>
+        <v>1.603238890721255e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.004234886576985381</v>
+        <v>0.004234886576924114</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.534551064527928e-05</v>
+        <v>1.534551064546109e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.02151067060603696</v>
+        <v>0.02151067060631179</v>
       </c>
       <c r="FP2" t="n">
-        <v>62420.87548257214</v>
+        <v>62420.87548476703</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.9185702062558874</v>
+        <v>0.9185702062748963</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9185702062558874</v>
+        <v>0.9185702062748963</v>
       </c>
       <c r="FS2" t="n">
-        <v>295034.0214274664</v>
+        <v>295034.0214299138</v>
       </c>
       <c r="FT2" t="n">
-        <v>362988.4086451849</v>
+        <v>362988.4086486155</v>
       </c>
       <c r="FU2" t="n">
-        <v>3788.783891571999</v>
+        <v>3788.783891576393</v>
       </c>
       <c r="FV2" t="n">
-        <v>716.0444568079062</v>
+        <v>716.04445680796</v>
       </c>
       <c r="FW2" t="n">
-        <v>1004.555855530271</v>
+        <v>1004.555855530326</v>
       </c>
       <c r="FX2" t="n">
-        <v>308.6467825568729</v>
+        <v>308.6467825591059</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.9992433487767282</v>
+        <v>0.9992433487767494</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.534551064527928e-05</v>
+        <v>1.534551064546109e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02151067060603696</v>
+        <v>0.02151067060631179</v>
       </c>
       <c r="GB2" t="inlineStr">
         <is>
@@ -8119,97 +8119,97 @@
         <v>1</v>
       </c>
       <c r="GD2" t="n">
-        <v>245.6233998725646</v>
+        <v>245.6233998750302</v>
       </c>
       <c r="GE2" t="n">
-        <v>70805.41930656029</v>
+        <v>70805.41930796036</v>
       </c>
       <c r="GF2" t="n">
-        <v>1.004980274742828</v>
+        <v>1.004980274752592</v>
       </c>
       <c r="GG2" t="n">
-        <v>301255.1604574878</v>
+        <v>301255.1604592517</v>
       </c>
       <c r="GH2" t="n">
-        <v>371709.6968161036</v>
+        <v>371709.6968185761</v>
       </c>
       <c r="GI2" t="n">
-        <v>3788.783891572373</v>
+        <v>3788.783891576768</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-558904.2840143091</v>
+        <v>-558904.2840222577</v>
       </c>
       <c r="GK2" t="n">
-        <v>716.2078264161206</v>
+        <v>716.2078264161669</v>
       </c>
       <c r="GL2" t="n">
-        <v>1004.778332387505</v>
+        <v>1004.778332387545</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.402914482819019</v>
+        <v>1.402914482818983</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.9992703300967322</v>
+        <v>0.9992703300967516</v>
       </c>
       <c r="GO2" t="n">
-        <v>314.2765528745019</v>
+        <v>314.2765528760815</v>
       </c>
       <c r="GP2" t="n">
-        <v>99261.65218636017</v>
+        <v>99261.65218832239</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.007438399395706e-05</v>
+        <v>1.007438399375791e-05</v>
       </c>
       <c r="GR2" t="n">
-        <v>70753.88657112131</v>
+        <v>70753.88657252173</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.413349921060247e-05</v>
+        <v>1.413349921032273e-05</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.004085025008018596</v>
+        <v>0.004085025007977464</v>
       </c>
       <c r="GU2" t="n">
-        <v>1.580534532951504e-05</v>
+        <v>1.580534532964414e-05</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.02220721764176363</v>
+        <v>0.02220721764195932</v>
       </c>
       <c r="GW2" t="n">
-        <v>70805.41930656029</v>
+        <v>70805.41930796036</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.004980274742828</v>
+        <v>1.004980274752592</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.004980274742828</v>
+        <v>1.004980274752592</v>
       </c>
       <c r="GZ2" t="n">
-        <v>301255.1604574878</v>
+        <v>301255.1604592517</v>
       </c>
       <c r="HA2" t="n">
-        <v>371709.6968161036</v>
+        <v>371709.6968185761</v>
       </c>
       <c r="HB2" t="n">
-        <v>3788.783891572373</v>
+        <v>3788.783891576768</v>
       </c>
       <c r="HC2" t="n">
-        <v>716.2078264161206</v>
+        <v>716.2078264161669</v>
       </c>
       <c r="HD2" t="n">
-        <v>1004.778332387505</v>
+        <v>1004.778332387545</v>
       </c>
       <c r="HE2" t="n">
-        <v>314.2765528745019</v>
+        <v>314.2765528760815</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.9992703300967322</v>
+        <v>0.9992703300967516</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.580534532951504e-05</v>
+        <v>1.580534532964414e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02220721764176363</v>
+        <v>0.02220721764195932</v>
       </c>
       <c r="HI2" t="inlineStr">
         <is>
@@ -8220,97 +8220,97 @@
         <v>1</v>
       </c>
       <c r="HK2" t="n">
-        <v>268.1325478450685</v>
+        <v>268.132547846338</v>
       </c>
       <c r="HL2" t="n">
-        <v>96169.14343005554</v>
+        <v>96169.14343017801</v>
       </c>
       <c r="HM2" t="n">
-        <v>1.250276210460828</v>
+        <v>1.25027621045648</v>
       </c>
       <c r="HN2" t="n">
-        <v>317337.6916906323</v>
+        <v>317337.6916915432</v>
       </c>
       <c r="HO2" t="n">
-        <v>394256.0099193775</v>
+        <v>394256.0099206538</v>
       </c>
       <c r="HP2" t="n">
-        <v>3788.783891570747</v>
+        <v>3788.783891575142</v>
       </c>
       <c r="HQ2" t="n">
-        <v>-621640.2681618405</v>
+        <v>-621640.2681665528</v>
       </c>
       <c r="HR2" t="n">
-        <v>716.7853702995133</v>
+        <v>716.785370299548</v>
       </c>
       <c r="HS2" t="n">
-        <v>1005.511312851283</v>
+        <v>1005.511312851302</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.402806690140906</v>
+        <v>1.402806690140863</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.9993647230925905</v>
+        <v>0.9993647230926066</v>
       </c>
       <c r="HV2" t="n">
-        <v>328.3798436122131</v>
+        <v>328.3798436129907</v>
       </c>
       <c r="HW2" t="n">
-        <v>134821.4368049537</v>
+        <v>134821.4368051234</v>
       </c>
       <c r="HX2" t="n">
-        <v>7.417218090077924e-06</v>
+        <v>7.417218090068588e-06</v>
       </c>
       <c r="HY2" t="n">
-        <v>96108.35031832608</v>
+        <v>96108.35031844999</v>
       </c>
       <c r="HZ2" t="n">
-        <v>1.040492315899546e-05</v>
+        <v>1.040492315898205e-05</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.003742747758388843</v>
+        <v>0.003742747758370954</v>
       </c>
       <c r="IB2" t="n">
-        <v>1.696534104375995e-05</v>
+        <v>1.696534104382404e-05</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.02397353035666952</v>
+        <v>0.0239735303567673</v>
       </c>
       <c r="ID2" t="n">
-        <v>96169.14343005554</v>
+        <v>96169.14343017801</v>
       </c>
       <c r="IE2" t="n">
-        <v>1.250276210460828</v>
+        <v>1.25027621045648</v>
       </c>
       <c r="IF2" t="n">
-        <v>1.250276210460828</v>
+        <v>1.25027621045648</v>
       </c>
       <c r="IG2" t="n">
-        <v>317337.6916906323</v>
+        <v>317337.6916915432</v>
       </c>
       <c r="IH2" t="n">
-        <v>394256.0099193775</v>
+        <v>394256.0099206538</v>
       </c>
       <c r="II2" t="n">
-        <v>3788.783891570747</v>
+        <v>3788.783891575142</v>
       </c>
       <c r="IJ2" t="n">
-        <v>716.7853702995133</v>
+        <v>716.785370299548</v>
       </c>
       <c r="IK2" t="n">
-        <v>1005.511312851283</v>
+        <v>1005.511312851302</v>
       </c>
       <c r="IL2" t="n">
-        <v>328.3798436122131</v>
+        <v>328.3798436129907</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.9993647230925905</v>
+        <v>0.9993647230926066</v>
       </c>
       <c r="IN2" t="n">
-        <v>1.696534104375995e-05</v>
+        <v>1.696534104382404e-05</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.02397353035666952</v>
+        <v>0.0239735303567673</v>
       </c>
       <c r="IP2" t="inlineStr">
         <is>
@@ -8321,64 +8321,64 @@
         <v>1</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.02589546160648692</v>
+        <v>0.02589546160505809</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.002229373808253121</v>
+        <v>0.002229373806658876</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.01188913901102819</v>
+        <v>0.01188913901113991</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.03204945911919106</v>
+        <v>0.03204945911821452</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.04286665274557556</v>
+        <v>0.04286665274395989</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.1149300862905349</v>
+        <v>0.1149300862850313</v>
       </c>
       <c r="IX2" t="n">
-        <v>-0.1149300862908574</v>
+        <v>-0.1149300862850313</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.4279012568774445</v>
+        <v>0.427901256853135</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.8102154609025479</v>
+        <v>0.8102154608700732</v>
       </c>
       <c r="JA2" t="n">
-        <v>390092.5911053491</v>
+        <v>390092.5910959866</v>
       </c>
       <c r="JB2" t="n">
-        <v>2.790805431930308</v>
+        <v>2.790805431896391</v>
       </c>
       <c r="JC2" t="n">
-        <v>380593.4359541573</v>
+        <v>380593.4359554336</v>
       </c>
       <c r="JD2" t="n">
         <v>0</v>
       </c>
       <c r="JE2" t="n">
-        <v>2673.60213845555</v>
+        <v>2673.602138777438</v>
       </c>
       <c r="JF2" t="n">
-        <v>6.664338489722944</v>
+        <v>6.664338487282485</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.009324929023331862</v>
+        <v>0.009324929028913546</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.0007945857551386145</v>
+        <v>0.0007945857550791072</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.01166789566375307</v>
+        <v>0.01166789567110156</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.01512446825246539</v>
+        <v>0.01512446826140599</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.004215964577210228</v>
+        <v>0.004215964579930498</v>
       </c>
     </row>
     <row r="3">
@@ -8386,145 +8386,145 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01561192565419374</v>
+        <v>0.0156119256537011</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.824277019584135e-07</v>
+        <v>-1.824277019664985e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01377981236503548</v>
+        <v>0.0137798123650177</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02533404515298725</v>
+        <v>0.02533404515323136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05472560074451452</v>
+        <v>0.05472560074424819</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.284733596231604e-13</v>
+        <v>-3.420180805235873e-14</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.0073547249167</v>
+        <v>278.0073547174902</v>
       </c>
       <c r="K3" t="n">
-        <v>113.595385895222</v>
+        <v>113.5953858921875</v>
       </c>
       <c r="L3" t="n">
-        <v>253.7403743680955</v>
+        <v>253.7403743613173</v>
       </c>
       <c r="M3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N3" t="n">
-        <v>278.0073547249167</v>
+        <v>278.0073547174902</v>
       </c>
       <c r="O3" t="n">
-        <v>113.595385895222</v>
+        <v>113.5953858921875</v>
       </c>
       <c r="P3" t="n">
-        <v>253.7403743680955</v>
+        <v>253.7403743613173</v>
       </c>
       <c r="Q3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R3" t="n">
-        <v>257.0420666625444</v>
+        <v>257.0420666644057</v>
       </c>
       <c r="S3" t="n">
-        <v>84687.59710152392</v>
+        <v>84687.5971057994</v>
       </c>
       <c r="T3" t="n">
-        <v>1.14858637184463</v>
+        <v>1.148586371894311</v>
       </c>
       <c r="U3" t="n">
-        <v>309408.3631736018</v>
+        <v>309408.3631749264</v>
       </c>
       <c r="V3" t="n">
-        <v>383140.3864480166</v>
+        <v>383140.3864498744</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347710988</v>
       </c>
       <c r="X3" t="n">
-        <v>-589228.5066230716</v>
+        <v>-589228.5066263903</v>
       </c>
       <c r="Y3" t="n">
-        <v>716.4769681993595</v>
+        <v>716.476968199415</v>
       </c>
       <c r="Z3" t="n">
-        <v>1005.158877009288</v>
+        <v>1005.158877009398</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402918616540376</v>
+        <v>1.402918616540421</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9992996080680439</v>
+        <v>0.9992996080680342</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.5087000053305</v>
+        <v>321.5087000064966</v>
       </c>
       <c r="AD3" t="n">
-        <v>118726.8971110937</v>
+        <v>118726.8971170904</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.422691271585172e-06</v>
+        <v>8.422691271159761e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>84628.49926667628</v>
+        <v>84628.49927094798</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.181635038627897e-05</v>
+        <v>1.181635038568253e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003904192220056348</v>
+        <v>0.003904192220028482</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.639904245956709e-05</v>
+        <v>1.639904245966331e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02310982003018393</v>
+        <v>0.02310982003033075</v>
       </c>
       <c r="AK3" t="n">
-        <v>84687.59710152392</v>
+        <v>84687.5971057994</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.14858637184463</v>
+        <v>1.148586371894311</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.14858637184463</v>
+        <v>1.148586371894311</v>
       </c>
       <c r="AN3" t="n">
-        <v>309408.3631736018</v>
+        <v>309408.3631749264</v>
       </c>
       <c r="AO3" t="n">
-        <v>383140.3864480166</v>
+        <v>383140.3864498744</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347710988</v>
       </c>
       <c r="AQ3" t="n">
-        <v>716.4769681993595</v>
+        <v>716.476968199415</v>
       </c>
       <c r="AR3" t="n">
-        <v>1005.158877009288</v>
+        <v>1005.158877009398</v>
       </c>
       <c r="AS3" t="n">
-        <v>321.5087000053305</v>
+        <v>321.5087000064966</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9992996080680439</v>
+        <v>0.9992996080680342</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.639904245956709e-05</v>
+        <v>1.639904245966331e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02310982003018393</v>
+        <v>0.02310982003033075</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -8535,13 +8535,13 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>295.6000000000885</v>
+        <v>295.6000000000886</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999951879</v>
+        <v>137999.9999951877</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819755047</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="BB3" t="n">
         <v>336973.3475828946</v>
@@ -8553,10 +8553,10 @@
         <v>3782.91734772336</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.9368987704</v>
+        <v>-696445.9368987706</v>
       </c>
       <c r="BF3" t="n">
-        <v>717.8632360362554</v>
+        <v>717.8632360362553</v>
       </c>
       <c r="BG3" t="n">
         <v>1006.821582550249</v>
@@ -8571,19 +8571,19 @@
         <v>344.8092213940488</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974370102</v>
+        <v>193456.8974370098</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087303045e-06</v>
+        <v>5.169110087303054e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617460249</v>
+        <v>137934.6617460247</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346988293e-06</v>
+        <v>7.249809346988305e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395798695745238</v>
+        <v>0.003395798695745236</v>
       </c>
       <c r="BP3" t="n">
         <v>1.832995174012118e-05</v>
@@ -8592,13 +8592,13 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999951879</v>
+        <v>137999.9999951877</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819755047</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819755047</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="BU3" t="n">
         <v>336973.3475828946</v>
@@ -8610,7 +8610,7 @@
         <v>3782.91734772336</v>
       </c>
       <c r="BX3" t="n">
-        <v>717.8632360362554</v>
+        <v>717.8632360362553</v>
       </c>
       <c r="BY3" t="n">
         <v>1006.821582550249</v>
@@ -8636,13 +8636,13 @@
         <v>1</v>
       </c>
       <c r="CF3" t="n">
-        <v>295.6000000000885</v>
+        <v>295.6000000000886</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999951879</v>
+        <v>137999.9999951877</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819755047</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="CI3" t="n">
         <v>336973.3475828946</v>
@@ -8654,10 +8654,10 @@
         <v>3782.91734772336</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.9368987704</v>
+        <v>-696445.9368987706</v>
       </c>
       <c r="CM3" t="n">
-        <v>717.8632360362554</v>
+        <v>717.8632360362553</v>
       </c>
       <c r="CN3" t="n">
         <v>1006.821582550249</v>
@@ -8672,19 +8672,19 @@
         <v>344.8092213940488</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974370102</v>
+        <v>193456.8974370098</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087303045e-06</v>
+        <v>5.169110087303054e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617460249</v>
+        <v>137934.6617460247</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346988293e-06</v>
+        <v>7.249809346988305e-06</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003395798695745238</v>
+        <v>0.003395798695745236</v>
       </c>
       <c r="CW3" t="n">
         <v>1.832995174012118e-05</v>
@@ -8693,13 +8693,13 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999951879</v>
+        <v>137999.9999951877</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819755047</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819755047</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="DB3" t="n">
         <v>336973.3475828946</v>
@@ -8711,7 +8711,7 @@
         <v>3782.91734772336</v>
       </c>
       <c r="DE3" t="n">
-        <v>717.8632360362554</v>
+        <v>717.8632360362553</v>
       </c>
       <c r="DF3" t="n">
         <v>1006.821582550249</v>
@@ -8737,37 +8737,37 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.01607888984665676</v>
+        <v>0.01607888984664127</v>
       </c>
       <c r="DN3" t="n">
-        <v>-1.826635900940167e-07</v>
+        <v>-1.826635901020327e-07</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.0137974567886978</v>
+        <v>0.01379745678869774</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0250966502684772</v>
+        <v>0.02509665026847848</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.05497281424024166</v>
+        <v>0.05497281424022739</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.05497281419309241</v>
+        <v>-0.05497281424022739</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.8646962110832691</v>
+        <v>0.8646962110570341</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8646962110832691</v>
+        <v>0.8646962110570341</v>
       </c>
       <c r="DV3" t="n">
-        <v>509376.838658179</v>
+        <v>509376.8386636155</v>
       </c>
       <c r="DW3" t="n">
-        <v>2.801075364074807</v>
+        <v>2.801075364121139</v>
       </c>
       <c r="DX3" t="n">
         <v>421784.4310884894</v>
@@ -8776,166 +8776,166 @@
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1538.279510090186</v>
+        <v>1538.279511370463</v>
       </c>
       <c r="EA3" t="n">
         <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.006449299912332162</v>
+        <v>0.006449299920691705</v>
       </c>
       <c r="EC3" t="n">
-        <v>-7.536104054731452e-08</v>
+        <v>-7.536104065071498e-08</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.01046551583726573</v>
+        <v>0.01046551585126215</v>
       </c>
       <c r="EE3" t="n">
         <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.005692452337159592</v>
+        <v>0.005692452344710397</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.02693962188921643</v>
+        <v>0.02693962188707154</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.00276612513190982</v>
+        <v>0.00276612513009967</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.01174717696684393</v>
+        <v>0.01174717696695905</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.03296430785496189</v>
+        <v>0.03296430785394792</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.04275610682356986</v>
+        <v>0.04275610682187619</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.1171733386665019</v>
+        <v>0.1171733386599544</v>
       </c>
       <c r="EM3" t="n">
-        <v>1.179763231551334e-11</v>
+        <v>1.531219595563016e-11</v>
       </c>
       <c r="EN3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EO3" t="n">
-        <v>138.6446015431512</v>
+        <v>138.6446015434453</v>
       </c>
       <c r="EP3" t="n">
-        <v>124.5676052486042</v>
+        <v>124.5676052487776</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-60.87066008913564</v>
+        <v>-60.87066008945055</v>
       </c>
       <c r="ER3" t="n">
-        <v>-26.04270713362436</v>
+        <v>-26.04270713370981</v>
       </c>
       <c r="ES3" t="n">
-        <v>258.2086428936723</v>
+        <v>258.2086428940318</v>
       </c>
       <c r="ET3" t="n">
-        <v>124.5676052486042</v>
+        <v>124.5676052487776</v>
       </c>
       <c r="EU3" t="n">
-        <v>-226.1738600891356</v>
+        <v>-226.1738600894506</v>
       </c>
       <c r="EV3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="EW3" t="n">
-        <v>234.2758147173107</v>
+        <v>234.2758147187446</v>
       </c>
       <c r="EX3" t="n">
-        <v>59999.97848178575</v>
+        <v>59999.97848203253</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.8928923345160819</v>
+        <v>0.8928923345142743</v>
       </c>
       <c r="EZ3" t="n">
-        <v>293150.1478789777</v>
+        <v>293150.1478800046</v>
       </c>
       <c r="FA3" t="n">
-        <v>360347.4752189014</v>
+        <v>360347.4752203406</v>
       </c>
       <c r="FB3" t="n">
-        <v>3788.91988655537</v>
+        <v>3788.919886560333</v>
       </c>
       <c r="FC3" t="n">
-        <v>-527304.8181024783</v>
+        <v>-527304.8181076345</v>
       </c>
       <c r="FD3" t="n">
-        <v>716.0006319736601</v>
+        <v>716.0006319736783</v>
       </c>
       <c r="FE3" t="n">
-        <v>1004.493576218256</v>
+        <v>1004.493576218259</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.402922750849204</v>
+        <v>1.402922750849172</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.999236554364281</v>
+        <v>0.999236554364298</v>
       </c>
       <c r="FH3" t="n">
-        <v>306.9215135792629</v>
+        <v>306.9215135802039</v>
       </c>
       <c r="FI3" t="n">
-        <v>84111.18606313656</v>
+        <v>84111.18606348202</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.188902507270992e-05</v>
+        <v>1.188902507266109e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>59954.25337013258</v>
+        <v>59954.25337038018</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.667938375992136e-05</v>
+        <v>1.667938375985248e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.00428246100776743</v>
+        <v>0.004282461007741035</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.520497864502601e-05</v>
+        <v>1.520497864510239e-05</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.02129820211854772</v>
+        <v>0.02129820211866298</v>
       </c>
       <c r="FP3" t="n">
-        <v>59999.97848178575</v>
+        <v>59999.97848203253</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.8928923345160819</v>
+        <v>0.8928923345142743</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.8928923345160819</v>
+        <v>0.8928923345142743</v>
       </c>
       <c r="FS3" t="n">
-        <v>293150.1478789777</v>
+        <v>293150.1478800046</v>
       </c>
       <c r="FT3" t="n">
-        <v>360347.4752189014</v>
+        <v>360347.4752203406</v>
       </c>
       <c r="FU3" t="n">
-        <v>3788.91988655537</v>
+        <v>3788.919886560333</v>
       </c>
       <c r="FV3" t="n">
-        <v>716.0006319736601</v>
+        <v>716.0006319736783</v>
       </c>
       <c r="FW3" t="n">
-        <v>1004.493576218256</v>
+        <v>1004.493576218259</v>
       </c>
       <c r="FX3" t="n">
-        <v>306.9215135792629</v>
+        <v>306.9215135802039</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.999236554364281</v>
+        <v>0.999236554364298</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.520497864502601e-05</v>
+        <v>1.520497864510239e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02129820211854772</v>
+        <v>0.02129820211866298</v>
       </c>
       <c r="GB3" t="inlineStr">
         <is>
@@ -8946,97 +8946,97 @@
         <v>1</v>
       </c>
       <c r="GD3" t="n">
-        <v>243.8746425912574</v>
+        <v>243.8746425927312</v>
       </c>
       <c r="GE3" t="n">
-        <v>69028.44858459524</v>
+        <v>69028.44858486153</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.9867897489278235</v>
+        <v>0.986789748925649</v>
       </c>
       <c r="GG3" t="n">
-        <v>300006.0987969938</v>
+        <v>300006.0987980496</v>
       </c>
       <c r="GH3" t="n">
-        <v>369958.637987431</v>
+        <v>369958.6379889108</v>
       </c>
       <c r="GI3" t="n">
-        <v>3788.919886561629</v>
+        <v>3788.919886566591</v>
       </c>
       <c r="GJ3" t="n">
-        <v>-554062.8451546936</v>
+        <v>-554062.8451600082</v>
       </c>
       <c r="GK3" t="n">
-        <v>716.1724365116395</v>
+        <v>716.1724365116637</v>
       </c>
       <c r="GL3" t="n">
-        <v>1004.730309428876</v>
+        <v>1004.730309428884</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.402916753293041</v>
+        <v>1.402916753293005</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.9992648418853498</v>
+        <v>0.9992648418853673</v>
       </c>
       <c r="GO3" t="n">
-        <v>313.1543021795655</v>
+        <v>313.1543021805132</v>
       </c>
       <c r="GP3" t="n">
-        <v>96770.14555180188</v>
+        <v>96770.14555217435</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.033376558749404e-05</v>
+        <v>1.033376558745427e-05</v>
       </c>
       <c r="GR3" t="n">
-        <v>68977.82446795581</v>
+        <v>68977.8244682231</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.44974128672985e-05</v>
+        <v>1.449741286724232e-05</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.004114250297859719</v>
+        <v>0.004114250297834668</v>
       </c>
       <c r="GU3" t="n">
-        <v>1.57135219824045e-05</v>
+        <v>1.57135219824818e-05</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.02206795606639361</v>
+        <v>0.02206795606651062</v>
       </c>
       <c r="GW3" t="n">
-        <v>69028.44858459524</v>
+        <v>69028.44858486153</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.9867897489278235</v>
+        <v>0.986789748925649</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9867897489278235</v>
+        <v>0.986789748925649</v>
       </c>
       <c r="GZ3" t="n">
-        <v>300006.0987969938</v>
+        <v>300006.0987980496</v>
       </c>
       <c r="HA3" t="n">
-        <v>369958.637987431</v>
+        <v>369958.6379889108</v>
       </c>
       <c r="HB3" t="n">
-        <v>3788.919886561629</v>
+        <v>3788.919886566591</v>
       </c>
       <c r="HC3" t="n">
-        <v>716.1724365116395</v>
+        <v>716.1724365116637</v>
       </c>
       <c r="HD3" t="n">
-        <v>1004.730309428876</v>
+        <v>1004.730309428884</v>
       </c>
       <c r="HE3" t="n">
-        <v>313.1543021795655</v>
+        <v>313.1543021805132</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.9992648418853498</v>
+        <v>0.9992648418853673</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.57135219824045e-05</v>
+        <v>1.57135219824818e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02206795606639361</v>
+        <v>0.02206795606651062</v>
       </c>
       <c r="HI3" t="inlineStr">
         <is>
@@ -9047,97 +9047,97 @@
         <v>1</v>
       </c>
       <c r="HK3" t="n">
-        <v>267.5608469977714</v>
+        <v>267.5608469991962</v>
       </c>
       <c r="HL3" t="n">
-        <v>95409.78892246075</v>
+        <v>95409.78892259029</v>
       </c>
       <c r="HM3" t="n">
-        <v>1.243057550881694</v>
+        <v>1.24305755087674</v>
       </c>
       <c r="HN3" t="n">
-        <v>316929.2064531402</v>
+        <v>316929.2064541622</v>
       </c>
       <c r="HO3" t="n">
-        <v>393683.3268514975</v>
+        <v>393683.3268529297</v>
       </c>
       <c r="HP3" t="n">
-        <v>3788.919886559891</v>
+        <v>3788.919886564855</v>
       </c>
       <c r="HQ3" t="n">
-        <v>-620083.287203167</v>
+        <v>-620083.287208461</v>
       </c>
       <c r="HR3" t="n">
-        <v>716.7674741389283</v>
+        <v>716.767474138967</v>
       </c>
       <c r="HS3" t="n">
-        <v>1005.488635078762</v>
+        <v>1005.488635078781</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.402810076289639</v>
+        <v>1.402810076289591</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.9993621730097674</v>
+        <v>0.9993621730097854</v>
       </c>
       <c r="HV3" t="n">
-        <v>328.0291303253197</v>
+        <v>328.0291303261934</v>
       </c>
       <c r="HW3" t="n">
-        <v>133756.8588089613</v>
+        <v>133756.8588091407</v>
       </c>
       <c r="HX3" t="n">
-        <v>7.476252125719053e-06</v>
+        <v>7.476252125709022e-06</v>
       </c>
       <c r="HY3" t="n">
-        <v>95349.2287157941</v>
+        <v>95349.22871592526</v>
       </c>
       <c r="HZ3" t="n">
-        <v>1.048776181484051e-05</v>
+        <v>1.048776181482609e-05</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.003750723525149274</v>
+        <v>0.003750723525129112</v>
       </c>
       <c r="IB3" t="n">
-        <v>1.693635799608128e-05</v>
+        <v>1.693635799615328e-05</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.02392923167036745</v>
+        <v>0.02392923167047727</v>
       </c>
       <c r="ID3" t="n">
-        <v>95409.78892246075</v>
+        <v>95409.78892259029</v>
       </c>
       <c r="IE3" t="n">
-        <v>1.243057550881694</v>
+        <v>1.24305755087674</v>
       </c>
       <c r="IF3" t="n">
-        <v>1.243057550881694</v>
+        <v>1.24305755087674</v>
       </c>
       <c r="IG3" t="n">
-        <v>316929.2064531402</v>
+        <v>316929.2064541622</v>
       </c>
       <c r="IH3" t="n">
-        <v>393683.3268514975</v>
+        <v>393683.3268529297</v>
       </c>
       <c r="II3" t="n">
-        <v>3788.919886559891</v>
+        <v>3788.919886564855</v>
       </c>
       <c r="IJ3" t="n">
-        <v>716.7674741389283</v>
+        <v>716.767474138967</v>
       </c>
       <c r="IK3" t="n">
-        <v>1005.488635078762</v>
+        <v>1005.488635078781</v>
       </c>
       <c r="IL3" t="n">
-        <v>328.0291303253197</v>
+        <v>328.0291303261934</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.9993621730097674</v>
+        <v>0.9993621730097854</v>
       </c>
       <c r="IN3" t="n">
-        <v>1.693635799608128e-05</v>
+        <v>1.693635799615328e-05</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.02392923167036745</v>
+        <v>0.02392923167047727</v>
       </c>
       <c r="IP3" t="inlineStr">
         <is>
@@ -9148,64 +9148,64 @@
         <v>1</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.02671664060623114</v>
+        <v>0.02671664060343836</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.002776408418731788</v>
+        <v>0.002776408416913203</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.01185591895979031</v>
+        <v>0.01185591895990233</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.03233884790339863</v>
+        <v>0.03233884790241499</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.0433459173981943</v>
+        <v>0.04334591739658783</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.1170337332863462</v>
+        <v>0.1170337332792567</v>
       </c>
       <c r="IX3" t="n">
-        <v>-0.1170337332346515</v>
+        <v>-0.1170337332792567</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.4517265665945117</v>
+        <v>0.4517265665940849</v>
       </c>
       <c r="IZ3" t="n">
-        <v>0.841285577809421</v>
+        <v>0.8412855778080132</v>
       </c>
       <c r="JA3" t="n">
-        <v>395146.7975015381</v>
+        <v>395146.7974993034</v>
       </c>
       <c r="JB3" t="n">
-        <v>2.801075364015785</v>
+        <v>2.801075364014015</v>
       </c>
       <c r="JC3" t="n">
-        <v>380020.7528863774</v>
+        <v>380020.7528877092</v>
       </c>
       <c r="JD3" t="n">
         <v>0</v>
       </c>
       <c r="JE3" t="n">
-        <v>2843.394124974147</v>
+        <v>2843.3941228193</v>
       </c>
       <c r="JF3" t="n">
-        <v>7.380018008162729</v>
+        <v>7.380018005791321</v>
       </c>
       <c r="JG3" t="n">
-        <v>0.009607516398702522</v>
+        <v>0.009607516395906937</v>
       </c>
       <c r="JH3" t="n">
-        <v>0.0009864872148159073</v>
+        <v>0.0009864872139618468</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.01175610888641304</v>
+        <v>0.01175610888356666</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.01524817234411719</v>
+        <v>0.01524817234029032</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.004189412747199335</v>
+        <v>0.004189412746354917</v>
       </c>
     </row>
   </sheetData>
@@ -9244,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3827762379865533</v>
+        <v>0.382776237987935</v>
       </c>
     </row>
     <row r="3">
@@ -9252,7 +9252,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.392772730778945</v>
+        <v>0.3927727308017159</v>
       </c>
     </row>
   </sheetData>
@@ -9266,7 +9266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9500,6 +9500,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -9507,223 +9727,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
     <row r="3">
@@ -9732,223 +10000,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
   </sheetData>
@@ -10042,7 +10358,7 @@
         <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>3.013956232891436e-11</v>
+        <v>9.38434059668701e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10073,7 +10389,7 @@
         <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>2.204711348063788e-11</v>
+        <v>4.056497583562837e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
